--- a/Info_Association.xlsx
+++ b/Info_Association.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aero5_IPSA\S9\PMI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\IPSA\A5\Prototypage\Nouveau dossier\PMI_GuideIPSA\PMI_GuideIPSA\PMI_GuideIPSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB48EE4-1819-4536-A67A-D708D21E9EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFFE18D-9609-44E1-9449-266C08959467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,9 +349,6 @@
     <t>lab_scrypt_L020</t>
   </si>
   <si>
-    <t>aerolPSA</t>
-  </si>
-  <si>
     <t>bd_kart_airsoft_dreamage_B005</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>yahia.taia@ipas.fr</t>
+  </si>
+  <si>
+    <t>aeroIPSA</t>
   </si>
 </sst>
 </file>
@@ -962,19 +962,19 @@
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="topRight" activeCell="R9" sqref="R9"/>
+      <selection pane="topRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
     <col min="11" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.140625" customWidth="1"/>
-    <col min="17" max="17" width="23.5703125" customWidth="1"/>
+    <col min="16" max="16" width="34.109375" customWidth="1"/>
+    <col min="17" max="17" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1024,13 +1024,13 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" t="s">
         <v>98</v>
       </c>
-      <c r="R1" t="s">
-        <v>99</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1077,10 +1077,10 @@
         <v>92</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1127,10 +1127,10 @@
         <v>93</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1177,10 +1177,10 @@
         <v>94</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1274,13 +1274,13 @@
         <v>69</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1324,13 +1324,13 @@
         <v>80</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>90</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>81</v>

--- a/Info_Association.xlsx
+++ b/Info_Association.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\IPSA\A5\Prototypage\Nouveau dossier\PMI_GuideIPSA\PMI_GuideIPSA\PMI_GuideIPSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reali\Documents\IPSA\PMI_GuideIPSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFFE18D-9609-44E1-9449-266C08959467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2184DD27-17B2-4A0A-BBE1-4EA9698EEA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,18 +92,9 @@
     <t>BDE LUN'AIR</t>
   </si>
   <si>
-    <t>organisation d'événement a but non lucratif au sein de l'école</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
-    <t xml:space="preserve">soirée d'intégration, WEI, soirée halloween </t>
-  </si>
-  <si>
-    <t>GALA / création d'événement dans l'école.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Local BDE </t>
   </si>
   <si>
@@ -125,26 +116,9 @@
     <t>I-Tech</t>
   </si>
   <si>
-    <t>I-Tech est spécialisé dans l’impression 3D et l’étude des différents systèmes automatisés mécaniques.</t>
-  </si>
-  <si>
     <t>Associaciation technologique de l'IPSA</t>
   </si>
   <si>
-    <t>-Projet Cerceuil
--Projet Borne arcade 
--Projet Mirroir infini
--Projet Caddie
--Projet Fontaine stroboscopique</t>
-  </si>
-  <si>
-    <t>-Projet MBDA
--Projet Chambre à brouillard en coopération avec l'observatoire de Paris
--Projet Maquette IPSA
--Projet Flipper
--Projet Recycleur de PLA</t>
-  </si>
-  <si>
     <t>B002</t>
   </si>
   <si>
@@ -166,23 +140,9 @@
     <t>IPSA Flight</t>
   </si>
   <si>
-    <t>Association de création de simulateurs de vol</t>
-  </si>
-  <si>
     <t>Aéronautique</t>
   </si>
   <si>
-    <t xml:space="preserve">- Boeing 777 échelle 1:1
-- Airbus A320
-- Simulateurs récréatifs : Alpha One et Bravo Two (à partir de simulateurs récupérés du Musée de l'Air et de l'Espace)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Rafale (à partir de simulateurs récupérés du Musée de l'Air et de l'Espace)
-- Mirage F1
-</t>
-  </si>
-  <si>
     <t>Local L016</t>
   </si>
   <si>
@@ -204,20 +164,9 @@
     <t>SCRYPT</t>
   </si>
   <si>
-    <t>Association de robotique et IA</t>
-  </si>
-  <si>
     <t>programmation, IA</t>
   </si>
   <si>
-    <t>Projet big brain (bot intéractif avec les étudiants sur le hub discord de l'IPSA)
-Projet GOPIGO (projet d'introduction à python effectué chaque année pour découvrir le langage)</t>
-  </si>
-  <si>
-    <t>Projet drone (programmation sur drone et création d'une ia de reconnaissance visuelle)
-Projet Jetson (création d'un bras robotisé pour suivre une cible donnée)</t>
-  </si>
-  <si>
     <t>L020</t>
   </si>
   <si>
@@ -239,19 +188,9 @@
     <t>Ips'airsoft</t>
   </si>
   <si>
-    <t xml:space="preserve">Simulation militaire avec réplique </t>
-  </si>
-  <si>
     <t>Sport</t>
   </si>
   <si>
-    <t xml:space="preserve">Stand de tir </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Développement de drones
-creation d'une réplique </t>
-  </si>
-  <si>
     <t>B005</t>
   </si>
   <si>
@@ -273,25 +212,9 @@
     <t>AéroIPSA</t>
   </si>
   <si>
-    <t>Depuis plus de 30 ans, AéroIPSA, association étudiante de l’école d’ingénieurs IPSA, conçoit et réalise entièrement des projets fonctionnels en rapport avec le secteur aérospatial. Elle rassemble des étudiants autour de projets, principalement de lanceurs, mais aussi de Cansats (micro-satellites). Cela leur permet d’appliquer les notions apprises durant leur cursus au profit d'un projet d'envergure et d’acquérir au passage les compétences nécessaires dans leur futur métier d'ingénieur.</t>
-  </si>
-  <si>
     <t>Astro modélisme</t>
   </si>
   <si>
-    <t>l'année dernière (2023-2024) on a réalisé
-- 2 Fusex : EOLE et SP-01
-- 3 Minifs : ARCTURUS, HORUS, WHAITIRI
-- 1 Cansat SPLAT'IPS
-avec plusieurs fusex (fusées expérimentales), Minif (mini fusées) et Cansats chaque année. (plus de détails sur https://www.aeroipsa.com/catalogue)</t>
-  </si>
-  <si>
-    <t>- 3 Fusex : ARDAN, MROM et AMON
-- 3 Minifs : PRISMA, SKYDIVE et HORIZON
-- 1 Cansat : ALBA
-(plus de détails sur https://www.aeroipsa.com/en-cours)</t>
-  </si>
-  <si>
     <t>Local à coté de l'accueil</t>
   </si>
   <si>
@@ -313,18 +236,9 @@
     <t>Dreamage IPSA</t>
   </si>
   <si>
-    <t>Asso photos</t>
-  </si>
-  <si>
     <t>Photos</t>
   </si>
   <si>
-    <t>Participer aux évènements des autres assos et de l'école</t>
-  </si>
-  <si>
-    <t>Développer une "branche" consacrée au spotting (photos d'avions)</t>
-  </si>
-  <si>
     <t>LAUNAY Nathan</t>
   </si>
   <si>
@@ -371,6 +285,70 @@
   </si>
   <si>
     <t>aeroIPSA</t>
+  </si>
+  <si>
+    <t>Organisation d'événements à but non lucratif au sein de l'école, tels que des soirées et des activités pour les étudiants.</t>
+  </si>
+  <si>
+    <t>Spécialisation dans les technologies d'impression 3D et la conception de projets technologiques innovants.</t>
+  </si>
+  <si>
+    <t>Création et développement de simulateurs de vol pour l'apprentissage et les loisirs aéronautiques.</t>
+  </si>
+  <si>
+    <t>Association dédiée à la robotique et à l'intelligence artificielle, impliquant la programmation et le développement technologique.</t>
+  </si>
+  <si>
+    <t>Association dédiée à la pratique de l'airsoft, proposant des simulations militaires immersives avec l'utilisation de répliques.</t>
+  </si>
+  <si>
+    <t>Depuis plus de 30 ans, AéroIPSA regroupe des étudiants pour concevoir et réaliser des projets aérospatiaux fonctionnels, tels que des lanceurs et des Cansats, offrant une application concrète des notions apprises et le développement de compétences clés pour leur futur métier d’ingénieur.</t>
+  </si>
+  <si>
+    <t>Association de photographie dédiée à la couverture des événements organisés au sein de l'école.</t>
+  </si>
+  <si>
+    <t>Organisation d'une soirée d'intégration, d'un week-end d'intégration (WEI) et d'une soirée Halloween.</t>
+  </si>
+  <si>
+    <t>Réalisation de plusieurs projets innovants, notamment le projet Cerceuil, la borne arcade, le miroir infini, le caddie, et la fontaine stroboscopique.</t>
+  </si>
+  <si>
+    <t>Réalisation de projets tels qu'un Boeing 777 à l'échelle 1:1, un Airbus A320, ainsi que des simulateurs récréatifs Alpha One et Bravo Two, conçus à partir de simulateurs récupérés du Musée de l'Air et de l'Espace.</t>
+  </si>
+  <si>
+    <t>Développement du projet Big Brain, un bot interactif pour le hub Discord de l'IPSA, et du projet GOPIGO, une introduction annuelle au langage Python permettant aux étudiants de découvrir la programmation.</t>
+  </si>
+  <si>
+    <t>Stand de tir.</t>
+  </si>
+  <si>
+    <t>Au cours de l'année 2023-2024, réalisation de 2 Fusex (EOLE et SP-01), 3 Minifs (ARCTURUS, HORUS, WHAITIRI), et 1 Cansat (SPLAT'IPS). Chaque année, l'association conçoit plusieurs Fusex, Minifs et Cansats, avec des détails disponibles sur notre catalogue : https://www.aeroipsa.com/catalogue</t>
+  </si>
+  <si>
+    <t>Participation active aux événements organisés par d'autres associations et réalisation de projets photographiques pour immortaliser ces moments.</t>
+  </si>
+  <si>
+    <t>Organisation du GALA et création d'événements au sein de l'école.</t>
+  </si>
+  <si>
+    <t>Réalisation de plusieurs projets en cours, notamment : le projet MBDA, la chambre à brouillard en partenariat avec l'Observatoire de Paris, la maquette IPSA, le flipper, et le recycleur de PLA.</t>
+  </si>
+  <si>
+    <t>Développement de simulateurs de vol, notamment pour le Rafale, conçu à partir de simulateurs récupérés du Musée de l'Air et de l'Espace, ainsi que pour le Mirage F1.</t>
+  </si>
+  <si>
+    <t>Développement de projets technologiques, notamment un drone avec programmation et intelligence artificielle de reconnaissance visuelle, ainsi que le projet Jetson, visant à créer un bras robotisé capable de suivre une cible donnée.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Développement de drones et création d'une réplique fonctionnelle. </t>
+  </si>
+  <si>
+    <t>Réalisation en cours de 3 Fusex (ARDAN, MROM, et AMON), 3 Minifs (PRISMA, SKYDIVE, et HORIZON), et 1 Cansat (ALBA). Plus de détails disponibles sur notre site : https://www.aeroipsa.com/en-cours</t>
+  </si>
+  <si>
+    <t>Création d'une branche dédiée au spotting, spécialisée dans la photographie d'avions.</t>
   </si>
 </sst>
 </file>
@@ -416,7 +394,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -427,6 +405,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -959,22 +940,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection activeCell="M1" sqref="M1"/>
-      <selection pane="topRight" activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.109375" customWidth="1"/>
-    <col min="17" max="17" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="178.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="228.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="131.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="93.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="199.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
@@ -1024,13 +1016,13 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="R1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1050,37 +1042,37 @@
         <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="Q2" s="5" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1091,46 +1083,46 @@
         <v>45611.710081018522</v>
       </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+      <c r="P3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>36</v>
-      </c>
       <c r="Q3" s="6" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1141,46 +1133,46 @@
         <v>45611.745219907411</v>
       </c>
       <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="P4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" t="s">
-        <v>47</v>
-      </c>
       <c r="Q4" s="6" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1191,46 +1183,46 @@
         <v>45611.911550925928</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1241,46 +1233,46 @@
         <v>45612.088750000003</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" t="s">
-        <v>65</v>
+        <v>94</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1291,46 +1283,46 @@
         <v>45613.90902777778</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="M7" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="O7" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1341,43 +1333,43 @@
         <v>45617.423333333332</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="M8" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="P8" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Info_Association.xlsx
+++ b/Info_Association.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\IPSA\A5\Prototypage\Nouveau dossier\PMI_GuideIPSA\PMI_GuideIPSA\PMI_GuideIPSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/titouanmillet/Library/Mobile Documents/com~apple~CloudDocs/IPSA/Cours/Aéro_5/PMI/PMI_GuideIPSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFFE18D-9609-44E1-9449-266C08959467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A57A417-1A51-434B-9B72-36EAC124F468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="114">
   <si>
     <t>Id</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Projet déjà réalisé</t>
-  </si>
-  <si>
-    <t>Feedback - Projet déjà réalisé</t>
   </si>
   <si>
     <t>Localisation (Numéro de Salle)</t>
@@ -372,12 +369,45 @@
   <si>
     <t>aeroIPSA</t>
   </si>
+  <si>
+    <t>Logo_web</t>
+  </si>
+  <si>
+    <t>titouan.millet@ipsa.fr</t>
+  </si>
+  <si>
+    <t>Titouan MILLET</t>
+  </si>
+  <si>
+    <t>KART</t>
+  </si>
+  <si>
+    <t>AeroRC</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>BDJ</t>
+  </si>
+  <si>
+    <t>Laboratoire de Drone</t>
+  </si>
+  <si>
+    <t>Laboratoire de Elec</t>
+  </si>
+  <si>
+    <t>Laboratoire LEMA</t>
+  </si>
+  <si>
+    <t>Laboratoire Thermo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,20 +423,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9BC2E6"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -416,72 +480,347 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="19">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" wrapText="0" relativeIndent="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -497,123 +836,119 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:R8" totalsRowShown="0">
-  <autoFilter ref="A1:R8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:R16" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:R16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="18">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="id"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure de début">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure de début" dataDxfId="17">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="startDate"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure de fin">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure de fin" dataDxfId="16">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="submitDate"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Adresse de messagerie" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Adresse de messagerie" dataDxfId="15">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="responder"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nom" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nom" dataDxfId="14">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="responderName"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nom de l'asso" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nom de l'asso" dataDxfId="13">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r642af433990d4d86a75a380c1967abd4"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Descriptif" dataDxfId="11">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Descriptif" dataDxfId="12">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r238085d69d114dc2bcec06104e02ee5b"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Feedback - Descriptif" dataDxfId="10">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Feedback - Descriptif" dataDxfId="11">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r238085d69d114dc2bcec06104e02ee5b-Comment"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Domaine d'activité" dataDxfId="9">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Domaine d'activité" dataDxfId="10">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rd3d33bc669cd4d6a969bf7d584bf93c3"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Projet déjà réalisé" dataDxfId="8">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Projet déjà réalisé" dataDxfId="9">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rceffff0584074342ba6fb9d05e68d575"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Feedback - Projet déjà réalisé" dataDxfId="7">
-      <extLst>
-        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
-          <xlmsforms:question id="rceffff0584074342ba6fb9d05e68d575-Comment"/>
-        </ext>
-      </extLst>
-    </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Projet en cours" dataDxfId="6">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Projet en cours" dataDxfId="8">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r04f59d0a8aa7440188225bdfd0587ce8"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Localisation (Numéro de Salle)" dataDxfId="5">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Localisation (Numéro de Salle)" dataDxfId="7">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r3b565daf54414424b1a130fdda6572a6"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Référents (NOM - Prénom)" dataDxfId="4">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Référents (NOM - Prénom)" dataDxfId="6">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rc106a9b1f08047049adbc62abc015211"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Partenaire / Sponsors" dataDxfId="3">
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Partenaire / Sponsors" dataDxfId="5">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r6a270295c74e4c3f90b3453ce7c35338"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Logo de l'asso" dataDxfId="2">
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Logo de l'asso" dataDxfId="4">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rc3fc8fa879704a69b1ddf30ab4a0cad0"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{2B68CDB9-2882-42E1-9F8C-EECC3939CAC0}" name="Code asso" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{1A8A3522-9B3D-4743-BBAE-C274900207E1}" name="email" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{2B68CDB9-2882-42E1-9F8C-EECC3939CAC0}" name="Code asso" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{1A8A3522-9B3D-4743-BBAE-C274900207E1}" name="email" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{14EC8AE4-F99B-5249-B6CA-AA07163C436D}" name="Logo_web" dataDxfId="1">
+      <calculatedColumnFormula>"/static/images/"&amp;P2&amp;".png"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -957,24 +1292,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection activeCell="M1" sqref="M1"/>
-      <selection pane="topRight" activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" customWidth="1"/>
+    <col min="9" max="9" width="33.1640625" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.109375" customWidth="1"/>
-    <col min="17" max="17" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.1640625" customWidth="1"/>
+    <col min="16" max="16" width="33" customWidth="1"/>
+    <col min="17" max="17" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="41.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1005,11 +1343,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>91</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
@@ -1021,380 +1359,703 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="Q1" t="s">
         <v>97</v>
       </c>
       <c r="R1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45610.718321759261</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45610.722997685189</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="R2" s="4" t="str">
+        <f>"/static/images/"&amp;P2&amp;".png"</f>
+        <v>/static/images/bde.png</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45610.718321759261</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45610.722997685189</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:18" ht="135" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45611.696875000001</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45611.710081018522</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="4" t="str">
+        <f>"/static/images/"&amp;P3&amp;".png"</f>
+        <v>/static/images/Itech_B002.png</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="105" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>45611.739872685182</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45611.745219907411</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R4" s="4" t="str">
+        <f t="shared" ref="R4:R8" si="0">"/static/images/"&amp;P4&amp;".png"</f>
+        <v>/static/images/flight.png</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="135" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45611.908379629633</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45611.911550925928</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/images/lab_scrypt_L020.png</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="90" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45612.086828703701</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45612.088750000003</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/images/bd_kart_airsoft_dreamage_B005.png</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="356" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45613.900694444441</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45613.90902777778</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/images/aeroIPSA.png</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="105" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45617.4221875</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45617.423333333332</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>/static/images/bd_kart_airsoft_dreamage_B005.png</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>45620.943055555559</v>
+      </c>
+      <c r="C9" s="11">
+        <v>45620.9375</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9" t="str">
+        <f t="shared" ref="R9:R16" si="1">"/static/images/"&amp;P9&amp;".png"</f>
+        <v>/static/images/.png</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14">
+        <v>45624.464583333334</v>
+      </c>
+      <c r="C10" s="14">
+        <v>45624.451388888891</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>/static/images/.png</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>45627.986111111109</v>
+      </c>
+      <c r="C11" s="11">
+        <v>45627.96597222222</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>/static/images/.png</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14">
+        <v>45631.507638888892</v>
+      </c>
+      <c r="C12" s="14">
+        <v>45631.480555555558</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>/static/images/.png</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>45635.029166666667</v>
+      </c>
+      <c r="C13" s="11">
+        <v>45634.994444444441</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>/static/images/.png</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14">
+        <v>45638.550694444442</v>
+      </c>
+      <c r="C14" s="14">
+        <v>45638.509027777778</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>/static/images/.png</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>45642.072222222225</v>
+      </c>
+      <c r="C15" s="11">
+        <v>45642.022916666669</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>/static/images/.png</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45611.696875000001</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45611.710081018522</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45611.739872685182</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45611.745219907411</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45611.908379629633</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45611.911550925928</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45612.086828703701</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45612.088750000003</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45613.900694444441</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45613.90902777778</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" t="s">
-        <v>78</v>
-      </c>
-      <c r="O7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>45617.4221875</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45617.423333333332</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8" t="s">
-        <v>88</v>
-      </c>
-      <c r="O8" t="s">
-        <v>89</v>
-      </c>
-      <c r="P8" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>81</v>
+      <c r="B16" s="14">
+        <v>45645.59375</v>
+      </c>
+      <c r="C16" s="14">
+        <v>45645.537499999999</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>/static/images/.png</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{F2031D4D-7136-488C-A913-298BBDED7C61}"/>
-    <hyperlink ref="R2" r:id="rId2" xr:uid="{20153B34-7D4C-4085-B914-062295B376D9}"/>
-    <hyperlink ref="R3" r:id="rId3" xr:uid="{46EB8A4E-1BE1-4338-BE88-B2DC551FE4DD}"/>
-    <hyperlink ref="R4" r:id="rId4" xr:uid="{118B9676-74BF-4B68-8394-5D318AB7C794}"/>
-    <hyperlink ref="R5" r:id="rId5" xr:uid="{9D6E3BA0-40B9-4EA3-8CD6-CAEB8F572D6A}"/>
-    <hyperlink ref="R6" r:id="rId6" xr:uid="{FD4E8F77-FEC1-4E94-AFCD-E5FB085A7308}"/>
-    <hyperlink ref="R7" r:id="rId7" xr:uid="{AEE81FA2-0A52-455E-A7AD-8DD9B8D8EC6C}"/>
-    <hyperlink ref="R8" r:id="rId8" xr:uid="{5F848C80-7160-456E-B017-E7BFA356E43B}"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{F2031D4D-7136-488C-A913-298BBDED7C61}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{20153B34-7D4C-4085-B914-062295B376D9}"/>
+    <hyperlink ref="Q3" r:id="rId3" xr:uid="{46EB8A4E-1BE1-4338-BE88-B2DC551FE4DD}"/>
+    <hyperlink ref="Q4" r:id="rId4" xr:uid="{118B9676-74BF-4B68-8394-5D318AB7C794}"/>
+    <hyperlink ref="Q5" r:id="rId5" xr:uid="{9D6E3BA0-40B9-4EA3-8CD6-CAEB8F572D6A}"/>
+    <hyperlink ref="Q6" r:id="rId6" xr:uid="{FD4E8F77-FEC1-4E94-AFCD-E5FB085A7308}"/>
+    <hyperlink ref="Q7" r:id="rId7" xr:uid="{AEE81FA2-0A52-455E-A7AD-8DD9B8D8EC6C}"/>
+    <hyperlink ref="Q8" r:id="rId8" xr:uid="{5F848C80-7160-456E-B017-E7BFA356E43B}"/>
+    <hyperlink ref="D9" r:id="rId9" display="mailto:titouan.millet@ipsa.fr" xr:uid="{57A4335C-E361-C74C-A3EC-DB83CF1AD465}"/>
+    <hyperlink ref="D10" r:id="rId10" display="mailto:titouan.millet@ipsa.fr" xr:uid="{5256AD13-0EA6-7740-B660-C07E1995607D}"/>
+    <hyperlink ref="D11" r:id="rId11" display="mailto:titouan.millet@ipsa.fr" xr:uid="{22253000-0D36-ED41-9418-42D27251AB92}"/>
+    <hyperlink ref="D12" r:id="rId12" display="mailto:titouan.millet@ipsa.fr" xr:uid="{E708A77F-2067-834B-80B6-D7E9DB16452B}"/>
+    <hyperlink ref="D13" r:id="rId13" display="mailto:titouan.millet@ipsa.fr" xr:uid="{273B4814-9636-D447-B383-8638D03C6DF7}"/>
+    <hyperlink ref="D14" r:id="rId14" display="mailto:titouan.millet@ipsa.fr" xr:uid="{BBFFCE7E-DBD2-C54C-860D-1C20E4085D82}"/>
+    <hyperlink ref="D15" r:id="rId15" display="mailto:titouan.millet@ipsa.fr" xr:uid="{D30CE107-6C88-1946-8CBF-4B0B800BEC60}"/>
+    <hyperlink ref="D16" r:id="rId16" display="mailto:titouan.millet@ipsa.fr" xr:uid="{77E72987-C88B-564C-A7C9-C5D32F7E097F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Info_Association.xlsx
+++ b/Info_Association.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reali\Documents\IPSA\PMI_GuideIPSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reali\Documents\IPSA\PMI\PMI_GuideIPSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2184DD27-17B2-4A0A-BBE1-4EA9698EEA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B4C8F8-7869-431B-8466-175BE58A10AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,8 +35,80 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="6">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="6">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
   <si>
     <t>Id</t>
   </si>
@@ -104,9 +176,6 @@
     <t>lydia / konnect group</t>
   </si>
   <si>
-    <t>https://ipsafr-my.sharepoint.com/personal/titouan_millet_ipsa_fr/Documents/Applications/Microsoft%20Forms/Collecte%20des%20informations%20Assos%20IPSA/Question/Logo%20e%CC%81criture%20fond_Yanis%20Ben%20simon.png</t>
-  </si>
-  <si>
     <t>tristan.potier@ipsa.fr</t>
   </si>
   <si>
@@ -128,9 +197,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>https://ipsafr-my.sharepoint.com/personal/titouan_millet_ipsa_fr/Documents/Applications/Microsoft%20Forms/Collecte%20des%20informations%20Assos%20IPSA/Question/itech_Tristan%20Potier.png</t>
-  </si>
-  <si>
     <t>lea.dubrunfaut@ipsa.fr</t>
   </si>
   <si>
@@ -152,9 +218,6 @@
     <t>Association des Amis du Musée Safran (AAMS)</t>
   </si>
   <si>
-    <t>https://ipsafr-my.sharepoint.com/personal/titouan_millet_ipsa_fr/Documents/Applications/Microsoft%20Forms/Collecte%20des%20informations%20Assos%20IPSA/Question/Logo%20IPSA_L%C3%A9a%20Dubrunfaut.png</t>
-  </si>
-  <si>
     <t>geoffroy.bisig@ipsa.fr</t>
   </si>
   <si>
@@ -176,9 +239,6 @@
     <t>Partenariat avec Parrot pour le projet drone</t>
   </si>
   <si>
-    <t>https://ipsafr-my.sharepoint.com/personal/titouan_millet_ipsa_fr/Documents/Applications/Microsoft%20Forms/Collecte%20des%20informations%20Assos%20IPSA/Question/scrypt_Geoffroy%20Bisig.jpg</t>
-  </si>
-  <si>
     <t>pierre-marie.aoun@ipsa.fr</t>
   </si>
   <si>
@@ -200,9 +260,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>https://ipsafr-my.sharepoint.com/personal/titouan_millet_ipsa_fr/Documents/Applications/Microsoft%20Forms/Collecte%20des%20informations%20Assos%20IPSA/Question/LOGO_Pierre%20marie%20Aoun.jpg</t>
-  </si>
-  <si>
     <t>yahia.taia@ipsa.fr</t>
   </si>
   <si>
@@ -224,9 +281,6 @@
     <t>CNES et Planète sciences</t>
   </si>
   <si>
-    <t>https://ipsafr-my.sharepoint.com/personal/titouan_millet_ipsa_fr/Documents/Applications/Microsoft%20Forms/Collecte%20des%20informations%20Assos%20IPSA/Question/Logo_Alpha2_Yahia%20Taia.png</t>
-  </si>
-  <si>
     <t>nathan.launay@ipsa.fr</t>
   </si>
   <si>
@@ -243,9 +297,6 @@
   </si>
   <si>
     <t>IPSA</t>
-  </si>
-  <si>
-    <t>https://ipsafr-my.sharepoint.com/personal/titouan_millet_ipsa_fr/Documents/Applications/Microsoft%20Forms/Collecte%20des%20informations%20Assos%20IPSA/Question/Logo_Dreamage_4_Nathan%20Launay.png</t>
   </si>
   <si>
     <t>Projet en cours</t>
@@ -349,6 +400,9 @@
   </si>
   <si>
     <t>Création d'une branche dédiée au spotting, spécialisée dans la photographie d'avions.</t>
+  </si>
+  <si>
+    <t>Image</t>
   </si>
 </sst>
 </file>
@@ -398,7 +452,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -408,6 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -475,6 +529,95 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+</richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -940,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="P2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,7 +1144,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
@@ -1016,10 +1159,10 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="R1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1041,17 +1184,17 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>83</v>
+      <c r="G2" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" t="s">
         <v>90</v>
-      </c>
-      <c r="L2" t="s">
-        <v>97</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
@@ -1062,14 +1205,14 @@
       <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="8" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1083,43 +1226,43 @@
         <v>45611.710081018522</v>
       </c>
       <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="J3" t="s">
         <v>84</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>27</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>28</v>
       </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="6" t="s">
+      <c r="P3" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1133,43 +1276,43 @@
         <v>45611.745219907411</v>
       </c>
       <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="N4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>35</v>
       </c>
-      <c r="N4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="6" t="s">
+      <c r="P4" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1183,43 +1326,43 @@
         <v>45611.911550925928</v>
       </c>
       <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="J5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
+      <c r="N5" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>42</v>
       </c>
-      <c r="J5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>39</v>
+      <c r="P5" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1233,43 +1376,43 @@
         <v>45612.088750000003</v>
       </c>
       <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
+      <c r="N6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
+      <c r="O6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>47</v>
+      <c r="P6" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1283,46 +1426,46 @@
         <v>45613.90902777778</v>
       </c>
       <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" t="s">
         <v>55</v>
       </c>
-      <c r="E7" t="s">
+      <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" t="s">
-        <v>60</v>
-      </c>
-      <c r="O7" t="s">
-        <v>61</v>
-      </c>
       <c r="P7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1333,60 +1476,59 @@
         <v>45617.423333333332</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
         <v>89</v>
       </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="L8" t="s">
-        <v>103</v>
-      </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="P8" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>63</v>
+      <c r="R8" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{F2031D4D-7136-488C-A913-298BBDED7C61}"/>
-    <hyperlink ref="R2" r:id="rId2" xr:uid="{20153B34-7D4C-4085-B914-062295B376D9}"/>
-    <hyperlink ref="R3" r:id="rId3" xr:uid="{46EB8A4E-1BE1-4338-BE88-B2DC551FE4DD}"/>
-    <hyperlink ref="R4" r:id="rId4" xr:uid="{118B9676-74BF-4B68-8394-5D318AB7C794}"/>
-    <hyperlink ref="R5" r:id="rId5" xr:uid="{9D6E3BA0-40B9-4EA3-8CD6-CAEB8F572D6A}"/>
-    <hyperlink ref="R6" r:id="rId6" xr:uid="{FD4E8F77-FEC1-4E94-AFCD-E5FB085A7308}"/>
-    <hyperlink ref="R7" r:id="rId7" xr:uid="{AEE81FA2-0A52-455E-A7AD-8DD9B8D8EC6C}"/>
-    <hyperlink ref="R8" r:id="rId8" xr:uid="{5F848C80-7160-456E-B017-E7BFA356E43B}"/>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{20153B34-7D4C-4085-B914-062295B376D9}"/>
+    <hyperlink ref="R3" r:id="rId2" xr:uid="{46EB8A4E-1BE1-4338-BE88-B2DC551FE4DD}"/>
+    <hyperlink ref="R4" r:id="rId3" xr:uid="{118B9676-74BF-4B68-8394-5D318AB7C794}"/>
+    <hyperlink ref="R5" r:id="rId4" xr:uid="{9D6E3BA0-40B9-4EA3-8CD6-CAEB8F572D6A}"/>
+    <hyperlink ref="R6" r:id="rId5" xr:uid="{FD4E8F77-FEC1-4E94-AFCD-E5FB085A7308}"/>
+    <hyperlink ref="R7" r:id="rId6" xr:uid="{AEE81FA2-0A52-455E-A7AD-8DD9B8D8EC6C}"/>
+    <hyperlink ref="R8" r:id="rId7" xr:uid="{5F848C80-7160-456E-B017-E7BFA356E43B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>